--- a/data/trans_camb/IP19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 7,11</t>
+          <t>-4,86; 7,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,42; 50,28</t>
+          <t>19,21; 52,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,15; 64,57</t>
+          <t>27,03; 64,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -1,03</t>
+          <t>-21,35; -1,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 32,24</t>
+          <t>-3,58; 29,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 47,32</t>
+          <t>9,59; 49,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 0,81</t>
+          <t>-11,53; 0,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 36,56</t>
+          <t>13,33; 36,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,97; 48,93</t>
+          <t>20,43; 49,26</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>169,44; —</t>
+          <t>206,05; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>287,37; —</t>
+          <t>293,93; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-94,04; 6,72</t>
+          <t>-93,66; 6,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 345,89</t>
+          <t>-24,01; 330,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,74; 608,0</t>
+          <t>38,5; 580,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 28,55</t>
+          <t>-86,97; 35,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,48; 645,54</t>
+          <t>100,08; 624,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>175,8; 906,44</t>
+          <t>165,1; 888,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,91</t>
+          <t>-4,01; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 19,05</t>
+          <t>8,9; 18,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,53; 34,91</t>
+          <t>22,72; 35,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,57</t>
+          <t>-3,98; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 16,92</t>
+          <t>7,57; 16,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 31,65</t>
+          <t>20,59; 31,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,29</t>
+          <t>-3,32; 2,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,37</t>
+          <t>9,52; 16,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,56; 31,98</t>
+          <t>23,0; 31,89</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,98; 61,95</t>
+          <t>-50,66; 63,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,64; 406,05</t>
+          <t>97,57; 385,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>254,76; 728,12</t>
+          <t>263,6; 782,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 83,98</t>
+          <t>-49,57; 76,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,34; 366,93</t>
+          <t>92,28; 368,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>234,84; 717,81</t>
+          <t>236,77; 671,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 43,76</t>
+          <t>-40,22; 42,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>118,64; 317,97</t>
+          <t>117,79; 324,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>287,24; 618,41</t>
+          <t>280,38; 612,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 6,92</t>
+          <t>-7,99; 7,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 10,86</t>
+          <t>-5,9; 10,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,3; 27,34</t>
+          <t>9,05; 26,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 5,89</t>
+          <t>-6,46; 5,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 19,8</t>
+          <t>2,66; 19,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 28,98</t>
+          <t>11,94; 29,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,16</t>
+          <t>-4,91; 4,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,93</t>
+          <t>1,82; 12,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 25,36</t>
+          <t>12,66; 24,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 122,51</t>
+          <t>-62,7; 138,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 198,23</t>
+          <t>-44,91; 186,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,8; 520,0</t>
+          <t>51,8; 503,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,13; 233,82</t>
+          <t>-72,97; 224,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,87; 764,95</t>
+          <t>16,0; 724,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>109,52; 1213,26</t>
+          <t>104,14; 1096,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,44; 114,2</t>
+          <t>-49,85; 93,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 278,1</t>
+          <t>18,39; 249,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>123,29; 497,25</t>
+          <t>118,24; 546,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,56</t>
+          <t>-3,62; 2,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,25</t>
+          <t>8,93; 17,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,59; 31,84</t>
+          <t>22,49; 31,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,66</t>
+          <t>-4,43; 1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,66</t>
+          <t>7,53; 15,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,64; 29,19</t>
+          <t>19,59; 28,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,11</t>
+          <t>-3,27; 1,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,11</t>
+          <t>9,34; 15,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,39; 29,08</t>
+          <t>22,27; 29,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 51,63</t>
+          <t>-44,17; 50,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>102,17; 324,17</t>
+          <t>103,52; 342,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>267,23; 624,92</t>
+          <t>260,05; 617,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 25,75</t>
+          <t>-49,03; 27,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>80,59; 280,23</t>
+          <t>77,93; 275,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>213,59; 508,56</t>
+          <t>225,84; 525,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 17,87</t>
+          <t>-38,36; 20,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>114,03; 265,64</t>
+          <t>108,1; 251,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>269,18; 495,97</t>
+          <t>272,95; 492,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-9,9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12,49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25,5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>34,57</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>45,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,9</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,23</t>
+          <t>42,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,9</t>
+          <t>33,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,09</t>
+          <t>-19,74; -1,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 52,59</t>
+          <t>-3,98; 29,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,03; 64,47</t>
+          <t>5,85; 47,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -1,6</t>
+          <t>-5,91; 8,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 29,73</t>
+          <t>20,29; 51,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 49,57</t>
+          <t>24,59; 60,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 0,51</t>
+          <t>-11,24; 0,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 36,66</t>
+          <t>12,68; 36,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 49,26</t>
+          <t>18,94; 49,04</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-70,87%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89,44%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>182,57%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>8,69%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>1095,24%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1448,54%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-70,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>89,44%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>194,98%</t>
+          <t>1350,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>407,76%</t>
+          <t>381,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-93,74; 8,76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-32,25; 331,08</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24,3; 578,66</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>206,05; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>293,93; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-93,66; 6,66</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 330,64</t>
+          <t>183,34; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,5; 580,08</t>
+          <t>271,38; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,97; 35,25</t>
+          <t>-87,84; 54,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>100,08; 624,93</t>
+          <t>93,04; 596,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>165,1; 888,77</t>
+          <t>159,47; 876,8</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,32</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>13,61</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>28,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,32</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,97</t>
+          <t>26,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,54</t>
+          <t>25,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,08</t>
+          <t>-4,27; 3,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,83</t>
+          <t>7,32; 16,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,72; 35,18</t>
+          <t>18,11; 28,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,46</t>
+          <t>-4,28; 3,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,99</t>
+          <t>8,82; 18,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,59; 31,75</t>
+          <t>20,35; 32,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,18</t>
+          <t>-3,01; 2,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 16,35</t>
+          <t>9,63; 16,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,0; 31,89</t>
+          <t>21,38; 29,55</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-6,32%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>189,69%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>366,34%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-7,65%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>208,85%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>443,5%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,32%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>189,69%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>399,94%</t>
+          <t>409,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>423,37%</t>
+          <t>390,3%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 63,7</t>
+          <t>-51,06; 72,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,57; 385,42</t>
+          <t>81,45; 365,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>263,6; 782,21</t>
+          <t>203,73; 615,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 76,65</t>
+          <t>-48,98; 67,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,28; 368,66</t>
+          <t>102,06; 391,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>236,77; 671,78</t>
+          <t>244,44; 712,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 42,13</t>
+          <t>-39,98; 39,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>117,79; 324,79</t>
+          <t>113,73; 307,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>280,38; 612,09</t>
+          <t>269,01; 575,0</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,45</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,76</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,33</t>
+          <t>15,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,99</t>
+          <t>17,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,78</t>
+          <t>-5,83; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 10,46</t>
+          <t>3,65; 20,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 26,91</t>
+          <t>10,96; 27,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,98</t>
+          <t>-8,02; 7,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 19,41</t>
+          <t>-5,63; 10,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,94; 29,33</t>
+          <t>6,55; 23,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,65</t>
+          <t>-5,56; 4,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 12,97</t>
+          <t>1,02; 12,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 24,78</t>
+          <t>11,82; 23,7</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>204,12%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>339,04%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-4,88%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>30,15%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>188,86%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>204,12%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>352,77%</t>
+          <t>166,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>253,65%</t>
+          <t>233,5%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 138,53</t>
+          <t>-70,52; 235,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 186,83</t>
+          <t>25,18; 774,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,8; 503,4</t>
+          <t>80,97; 1193,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,97; 224,08</t>
+          <t>-62,09; 149,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 724,01</t>
+          <t>-44,0; 193,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>104,14; 1096,67</t>
+          <t>37,35; 424,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,85; 93,79</t>
+          <t>-53,25; 91,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,39; 249,94</t>
+          <t>3,71; 250,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>118,24; 546,47</t>
+          <t>109,08; 518,71</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22,37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,33</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>12,87</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>27,04</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,63</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>24,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,67</t>
+          <t>23,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,55</t>
+          <t>-4,53; 1,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 17,21</t>
+          <t>7,55; 15,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,49; 31,92</t>
+          <t>17,6; 26,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,51</t>
+          <t>-3,09; 2,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,75</t>
+          <t>8,86; 16,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,59</t>
+          <t>20,39; 29,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,09</t>
+          <t>-3,07; 1,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,34; 15,42</t>
+          <t>9,25; 14,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,27; 29,05</t>
+          <t>20,52; 27,09</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>158,58%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>304,99%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-4,97%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>192,91%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>405,1%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-21,42%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>158,58%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>329,01%</t>
+          <t>371,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>366,79%</t>
+          <t>338,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 50,66</t>
+          <t>-50,04; 28,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>103,52; 342,51</t>
+          <t>81,22; 271,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>260,05; 617,89</t>
+          <t>195,61; 482,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 27,98</t>
+          <t>-39,01; 51,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,93; 275,53</t>
+          <t>109,15; 321,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>225,84; 525,18</t>
+          <t>238,63; 593,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 20,21</t>
+          <t>-37,85; 20,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>108,1; 251,83</t>
+          <t>112,14; 258,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>272,95; 492,77</t>
+          <t>250,88; 465,36</t>
         </is>
       </c>
     </row>
